--- a/rhla_analysis/rhla1_3_normal_result/result.xlsx
+++ b/rhla_analysis/rhla1_3_normal_result/result.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.139646053863354</v>
+        <v>4.139646053863379</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9.396094678904136</v>
+        <v>9.396094678904088</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10.43578331129954</v>
+        <v>10.43578331129953</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9.912192490008023</v>
+        <v>9.912192490007998</v>
       </c>
     </row>
     <row r="6">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.588924579260869</v>
+        <v>2.588924579260862</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.402512826359239</v>
+        <v>8.402512826359224</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8.544600502568823</v>
+        <v>8.544600502568828</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8.439313729675028</v>
+        <v>8.439313729675035</v>
       </c>
     </row>
     <row r="11">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6.550501465946542</v>
+        <v>6.550501465946573</v>
       </c>
     </row>
     <row r="13">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>14.28326317233518</v>
+        <v>14.28326317233512</v>
       </c>
     </row>
     <row r="14">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>14.18618024196046</v>
+        <v>14.18618024196044</v>
       </c>
     </row>
     <row r="16">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>8.57359429935708</v>
+        <v>8.573594299357117</v>
       </c>
     </row>
     <row r="18">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>22.21394614265259</v>
+        <v>22.21394614265258</v>
       </c>
     </row>
     <row r="19">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>20.09809897155945</v>
+        <v>20.09809897155947</v>
       </c>
     </row>
     <row r="20">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>19.69218182923312</v>
+        <v>19.69218182923315</v>
       </c>
     </row>
     <row r="21">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>5.241266377529449</v>
+        <v>5.241266377529434</v>
       </c>
     </row>
     <row r="23">
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>21.09859816040534</v>
+        <v>21.09859816040544</v>
       </c>
     </row>
     <row r="24">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>20.05929711669035</v>
+        <v>20.05929711669037</v>
       </c>
     </row>
     <row r="25">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>20.38010108705531</v>
+        <v>20.38010108705536</v>
       </c>
     </row>
     <row r="26">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>7.807902240635619</v>
+        <v>7.807902240635625</v>
       </c>
     </row>
     <row r="28">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>16.92110778155396</v>
+        <v>16.92110778155404</v>
       </c>
     </row>
     <row r="29">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>19.22171138296462</v>
+        <v>19.22171138296461</v>
       </c>
     </row>
     <row r="30">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>18.12181531104417</v>
+        <v>18.12181531104419</v>
       </c>
     </row>
     <row r="31">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>15.03200570481393</v>
+        <v>15.03200570481398</v>
       </c>
     </row>
     <row r="33">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>29.75221237439929</v>
+        <v>29.7522123743991</v>
       </c>
     </row>
     <row r="34">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>34.26358656354391</v>
+        <v>34.26358656354383</v>
       </c>
     </row>
     <row r="35">
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>32.48343775359074</v>
+        <v>32.48343775359062</v>
       </c>
     </row>
     <row r="36">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.3750157219784</v>
+        <v>16.37501572197835</v>
       </c>
     </row>
     <row r="38">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>40.91145701347221</v>
+        <v>40.9114570134726</v>
       </c>
     </row>
     <row r="39">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>43.63290253546383</v>
+        <v>43.63290253546387</v>
       </c>
     </row>
     <row r="40">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>41.25265460846099</v>
+        <v>41.2526546084611</v>
       </c>
     </row>
     <row r="41">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>35.23621193625969</v>
+        <v>35.23621193625959</v>
       </c>
     </row>
     <row r="43">
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>55.56560090515833</v>
+        <v>55.56560090515839</v>
       </c>
     </row>
     <row r="44">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>71.47436215841522</v>
+        <v>71.47436215841525</v>
       </c>
     </row>
     <row r="45">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>66.96821900438287</v>
+        <v>66.96821900438268</v>
       </c>
     </row>
     <row r="46">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>39.88646604055932</v>
+        <v>39.88646604055913</v>
       </c>
     </row>
     <row r="48">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>102.0891091266212</v>
+        <v>102.0891091266204</v>
       </c>
     </row>
     <row r="49">
@@ -922,7 +922,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>101.2844023570525</v>
+        <v>101.2844023570518</v>
       </c>
     </row>
     <row r="50">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>97.91560277227549</v>
+        <v>97.91560277227489</v>
       </c>
     </row>
     <row r="51">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>50.8729505406664</v>
+        <v>50.87295054066714</v>
       </c>
     </row>
     <row r="53">
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>111.1605553350849</v>
+        <v>111.1605553350851</v>
       </c>
     </row>
     <row r="54">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>118.3923717622079</v>
+        <v>118.3923717622083</v>
       </c>
     </row>
     <row r="55">
